--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.group_no_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.group_delivery_invoice_address</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -86,11 +92,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,12 +136,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -165,16 +162,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.81"/>
   </cols>
   <sheetData>
@@ -194,7 +191,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -224,6 +221,28 @@
         <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
     </row>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,22 +31,94 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.sia_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_riba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.initiating_party_issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.sepa_creditor_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT79ZZZ0000005111810015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.initiating_party_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L19930622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.account.profile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_coa_base.profile_account_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_coa_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_dichiarazione_intento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_fatturapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.state_it_mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_fiscal_position_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_fatturapa.fatturapa_RF01</t>
+  </si>
+  <si>
     <t xml:space="preserve">res.company.sp_account_id</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.coa_153030</t>
   </si>
   <si>
-    <t xml:space="preserve">res.company.fatturapa_fiscal_position_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_fatturapa.fatturapa_RF01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
+    <t xml:space="preserve">l10n_it_split_payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.tax_calculation_rounding_method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">round_globally</t>
   </si>
   <si>
     <t xml:space="preserve">res.groups</t>
@@ -71,7 +143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,6 +164,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,12 +214,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -162,17 +244,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -185,65 +268,179 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>7</v>
+      </c>
       <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>10</v>
+      </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,6 +34,75 @@
     <t xml:space="preserve">requirements</t>
   </si>
   <si>
+    <t xml:space="preserve">res.company.account.profile_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_coa_base.profile_account_demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_coa_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_dichiarazione_intento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.due_cost_service_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_fiscal_position_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_fatturapa.fatturapa_RF01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_fatturapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.fatturapa_rea_office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.state_it_mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.initiating_party_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L19930622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.initiating_party_issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.sepa_creditor_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT79ZZZ0000005111810015</t>
+  </si>
+  <si>
     <t xml:space="preserve">res.company.sia_code</t>
   </si>
   <si>
@@ -43,69 +112,6 @@
     <t xml:space="preserve">account_banking_riba</t>
   </si>
   <si>
-    <t xml:space="preserve">res.company.initiating_party_issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.sepa_creditor_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT79ZZZ0000005111810015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.initiating_party_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19930622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.account.profile_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_coa_base.profile_account_demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_coa_base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_dichiarazione_intento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_fatturapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base.state_it_mi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_fiscal_position_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">l10n_it_fatturapa.fatturapa_RF01</t>
-  </si>
-  <si>
     <t xml:space="preserve">res.company.sp_account_id</t>
   </si>
   <si>
@@ -134,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">sale.group_delivery_invoice_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.sp_tax_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_-22SPv</t>
   </si>
 </sst>
 </file>
@@ -244,13 +256,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
@@ -288,6 +300,7 @@
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
@@ -299,114 +312,113 @@
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="n">
-        <v>12500</v>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>32</v>
       </c>
     </row>
@@ -414,33 +426,54 @@
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>35</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,16 +31,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.account.profile_id</t>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.account_profile_id</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_coa_base.profile_account_demo</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_it_coa_base</t>
+    <t xml:space="preserve">v==12 and l10n_it_coa_base</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_it_dichiarazione_intento</t>
+    <t xml:space="preserve">v==12 and l10n_it_dichiarazione_intento</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.due_cost_service_id</t>
@@ -64,19 +64,19 @@
     <t xml:space="preserve">l10n_it_fatturapa.fatturapa_RF01</t>
   </si>
   <si>
-    <t xml:space="preserve">l10n_it_fatturapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.fatturapa_rea_office</t>
+    <t xml:space="preserve">l10n_it_fatturapa or l10n_it_einvoice_base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.rea_capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.rea_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">590626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.rea_office</t>
   </si>
   <si>
     <t xml:space="preserve">base.state_it_mi</t>
@@ -106,21 +106,30 @@
     <t xml:space="preserve">res.company.sia_code</t>
   </si>
   <si>
-    <t xml:space="preserve">A5906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_banking_riba</t>
+    <t xml:space="preserve">A7721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v==12 and account_banking_riba</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.sp_account_id</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_153030</t>
+    <t xml:space="preserve">z0bug.coa_153060</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_split_payment</t>
   </si>
   <si>
+    <t xml:space="preserve">res.company.sp_tax_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_-22SPv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v==10 and l10n_it_coa_base</t>
+  </si>
+  <si>
     <t xml:space="preserve">res.company.tax_calculation_rounding_method</t>
   </si>
   <si>
@@ -140,12 +149,6 @@
   </si>
   <si>
     <t xml:space="preserve">sale.group_delivery_invoice_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.sp_tax_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_-22SPv</t>
   </si>
 </sst>
 </file>
@@ -259,15 +262,15 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,50 +433,50 @@
       <c r="C14" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="D14" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>36</v>
       </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="0" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_product_SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_ricevute_bancarie</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.fatturapa_fiscal_position_id</t>
@@ -262,10 +265,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
@@ -319,164 +322,167 @@
       <c r="C4" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="n">
         <v>12500</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,6 +70,90 @@
     <t xml:space="preserve">l10n_it_fatturapa or l10n_it_einvoice_base</t>
   </si>
   <si>
+    <t xml:space="preserve">res.company.initiating_party_identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L19930622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.initiating_party_issuer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_custom_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat.278105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_purchase_delivery_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.incoterm_CIF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_purchase_destination_province_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.state_it_mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_purchase_transaction_nature_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat.code_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_purchase_transport_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_sale_country_origin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_sale_delivery_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">account.incoterm_CFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_sale_province_origin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.state_it_ce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_sale_transaction_nature_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat.code_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_sale_transport_code_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_intrastat.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.company.intrastat_ua_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5X9Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">res.company.rea_capital</t>
   </si>
   <si>
@@ -85,21 +169,6 @@
     <t xml:space="preserve">base.state_it_mi</t>
   </si>
   <si>
-    <t xml:space="preserve">res.company.initiating_party_identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L19930622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">account_banking_sepa_direct_debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">res.company.initiating_party_issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBI</t>
-  </si>
-  <si>
     <t xml:space="preserve">res.company.sepa_creditor_identifier</t>
   </si>
   <si>
@@ -139,19 +208,31 @@
     <t xml:space="preserve">round_globally</t>
   </si>
   <si>
-    <t xml:space="preserve">res.groups</t>
+    <t xml:space="preserve">res.user.group_discount_per_so_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.group_discount_per_so_line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.users.group_account_user</t>
   </si>
   <si>
     <t xml:space="preserve">account.group_account_user</t>
   </si>
   <si>
-    <t xml:space="preserve">True</t>
+    <t xml:space="preserve">res.users.group_delivery_invoice_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sale.group_delivery_invoice_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.users.group_no_one</t>
   </si>
   <si>
     <t xml:space="preserve">base.group_no_one</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sale.group_delivery_invoice_address</t>
   </si>
 </sst>
 </file>
@@ -262,15 +343,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.59"/>
@@ -342,44 +423,43 @@
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="n">
-        <v>12500</v>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>19</v>
+      </c>
       <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>23</v>
@@ -387,10 +467,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>23</v>
@@ -398,10 +479,11 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>23</v>
@@ -409,26 +491,26 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,49 +522,191 @@
         <v>35</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="0" t="s">
-        <v>38</v>
+      <c r="D15" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>41</v>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>42</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="0" t="s">
         <v>41</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>41</v>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="n">
+        <v>12500</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">l10n_it_coa_base.profile_account_demo</t>
   </si>
   <si>
-    <t xml:space="preserve">v==12 and l10n_it_coa_base</t>
+    <t xml:space="preserve">V==12 and l10n_it_coa_base</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.dichiarazione_yearly_limit_ids</t>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">z0bug.li_year_2020,z0bug.li_year_2021,z0bug.li_year_2022</t>
   </si>
   <si>
-    <t xml:space="preserve">v==12 and l10n_it_dichiarazione_intento</t>
+    <t xml:space="preserve">V==12 and l10n_it_dichiarazione_intento</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.due_cost_service_id</t>
@@ -181,13 +181,13 @@
     <t xml:space="preserve">A7721</t>
   </si>
   <si>
-    <t xml:space="preserve">v==12 and account_banking_riba</t>
+    <t xml:space="preserve">V==12 and account_banking_riba</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.sp_account_id</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_153060</t>
+    <t xml:space="preserve">external.153060</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_split_payment</t>
@@ -196,10 +196,10 @@
     <t xml:space="preserve">res.company.sp_tax_id</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.tax_-22SPv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v==10 and l10n_it_coa_base</t>
+    <t xml:space="preserve">external.-SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V==10</t>
   </si>
   <si>
     <t xml:space="preserve">res.company.tax_calculation_rounding_method</t>
@@ -346,10 +346,10 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C24 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>

--- a/z0bug_odoo/data/miscellaneous.xlsx
+++ b/z0bug_odoo/data/miscellaneous.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t xml:space="preserve">sale.group_delivery_invoice_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">res.users.group_multi_currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base.group_multi_currency</t>
   </si>
   <si>
     <t xml:space="preserve">res.users.group_no_one</t>
@@ -343,13 +349,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C24 C1"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
@@ -709,6 +715,17 @@
         <v>64</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
